--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9961</v>
+        <v>10011</v>
       </c>
       <c r="D2" t="n">
-        <v>13675380</v>
+        <v>13744166</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19701</v>
+        <v>19780</v>
       </c>
       <c r="D4" t="n">
-        <v>25249022</v>
+        <v>25345251</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -572,10 +640,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D6" t="n">
-        <v>1344937</v>
+        <v>1346437</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +678,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55526</v>
+        <v>55763</v>
       </c>
       <c r="D7" t="n">
-        <v>79881573</v>
+        <v>80224387</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +716,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71227</v>
+        <v>71443</v>
       </c>
       <c r="D8" t="n">
-        <v>94988456</v>
+        <v>95277876</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +754,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19190</v>
+        <v>19327</v>
       </c>
       <c r="D9" t="n">
-        <v>26693382</v>
+        <v>26879754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +792,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57375</v>
+        <v>57595</v>
       </c>
       <c r="D10" t="n">
-        <v>82347421</v>
+        <v>82660917</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +830,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7688</v>
+        <v>7714</v>
       </c>
       <c r="D11" t="n">
-        <v>10065472</v>
+        <v>10097573</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3459</v>
+        <v>3470</v>
       </c>
       <c r="D12" t="n">
-        <v>4882330</v>
+        <v>4893511</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +906,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13071</v>
+        <v>13103</v>
       </c>
       <c r="D13" t="n">
-        <v>17729316</v>
+        <v>17770692</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +944,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40837</v>
+        <v>40972</v>
       </c>
       <c r="D14" t="n">
-        <v>55230741</v>
+        <v>55412097</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +982,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19162</v>
+        <v>19226</v>
       </c>
       <c r="D15" t="n">
-        <v>24831563</v>
+        <v>24911486</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +1058,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>38059</v>
+        <v>38179</v>
       </c>
       <c r="D17" t="n">
-        <v>48471948</v>
+        <v>48618451</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1096,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45587</v>
+        <v>45730</v>
       </c>
       <c r="D18" t="n">
-        <v>61137699</v>
+        <v>61323887</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1134,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22645</v>
+        <v>22730</v>
       </c>
       <c r="D19" t="n">
-        <v>27729760</v>
+        <v>27831985</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46930</v>
+        <v>47034</v>
       </c>
       <c r="D20" t="n">
-        <v>57320629</v>
+        <v>57429044</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1210,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3406</v>
+        <v>3426</v>
       </c>
       <c r="D21" t="n">
-        <v>4687268</v>
+        <v>4714925</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1286,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5500</v>
+        <v>5521</v>
       </c>
       <c r="D23" t="n">
-        <v>6935962</v>
+        <v>6961638</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D25" t="n">
-        <v>556274</v>
+        <v>557774</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1400,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13707</v>
+        <v>13759</v>
       </c>
       <c r="D26" t="n">
-        <v>19651496</v>
+        <v>19722073</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1438,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22044</v>
+        <v>22104</v>
       </c>
       <c r="D27" t="n">
-        <v>28996062</v>
+        <v>29072778</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2642</v>
+        <v>2660</v>
       </c>
       <c r="D28" t="n">
-        <v>3592558</v>
+        <v>3617158</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1514,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16658</v>
+        <v>16721</v>
       </c>
       <c r="D29" t="n">
-        <v>23746756</v>
+        <v>23831237</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="D30" t="n">
-        <v>1774551</v>
+        <v>1780528</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1590,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D31" t="n">
-        <v>1122708</v>
+        <v>1127208</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1628,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2923</v>
+        <v>2931</v>
       </c>
       <c r="D32" t="n">
-        <v>3869756</v>
+        <v>3878264</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1666,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7930</v>
+        <v>7964</v>
       </c>
       <c r="D33" t="n">
-        <v>10708552</v>
+        <v>10747558</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1704,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3897</v>
+        <v>3904</v>
       </c>
       <c r="D34" t="n">
-        <v>4960880</v>
+        <v>4970430</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5618</v>
+        <v>5647</v>
       </c>
       <c r="D36" t="n">
-        <v>6755411</v>
+        <v>6785304</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1818,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10017</v>
+        <v>10044</v>
       </c>
       <c r="D37" t="n">
-        <v>13339753</v>
+        <v>13373148</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1856,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5719</v>
+        <v>5744</v>
       </c>
       <c r="D38" t="n">
-        <v>6835567</v>
+        <v>6861910</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1894,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14363</v>
+        <v>14389</v>
       </c>
       <c r="D39" t="n">
-        <v>17711196</v>
+        <v>17741218</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1932,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2806</v>
+        <v>2820</v>
       </c>
       <c r="D40" t="n">
-        <v>3838609</v>
+        <v>3857678</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +2008,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7329</v>
+        <v>7343</v>
       </c>
       <c r="D42" t="n">
-        <v>9031321</v>
+        <v>9047696</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D44" t="n">
-        <v>347544</v>
+        <v>348983</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2122,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15339</v>
+        <v>15381</v>
       </c>
       <c r="D45" t="n">
-        <v>21925892</v>
+        <v>21985163</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2160,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23874</v>
+        <v>23924</v>
       </c>
       <c r="D46" t="n">
-        <v>32001454</v>
+        <v>32069662</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2198,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3309</v>
+        <v>3318</v>
       </c>
       <c r="D47" t="n">
-        <v>4566693</v>
+        <v>4576611</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2236,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22682</v>
+        <v>22764</v>
       </c>
       <c r="D48" t="n">
-        <v>32540476</v>
+        <v>32655928</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2274,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="D49" t="n">
-        <v>2892275</v>
+        <v>2905775</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2312,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D50" t="n">
-        <v>1472460</v>
+        <v>1475460</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4323</v>
+        <v>4340</v>
       </c>
       <c r="D51" t="n">
-        <v>5643898</v>
+        <v>5665590</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11802</v>
+        <v>11830</v>
       </c>
       <c r="D52" t="n">
-        <v>15876581</v>
+        <v>15913727</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2426,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4997</v>
+        <v>5011</v>
       </c>
       <c r="D53" t="n">
-        <v>6207463</v>
+        <v>6225148</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2502,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6326</v>
+        <v>6338</v>
       </c>
       <c r="D55" t="n">
-        <v>7751707</v>
+        <v>7767297</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2540,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16727</v>
+        <v>16779</v>
       </c>
       <c r="D56" t="n">
-        <v>22578289</v>
+        <v>22646697</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2578,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7146</v>
+        <v>7178</v>
       </c>
       <c r="D57" t="n">
-        <v>8552401</v>
+        <v>8591159</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16087</v>
+        <v>16103</v>
       </c>
       <c r="D58" t="n">
-        <v>19923691</v>
+        <v>19941989</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2654,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2491</v>
+        <v>2504</v>
       </c>
       <c r="D59" t="n">
-        <v>3418765</v>
+        <v>3437542</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2692,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4616</v>
+        <v>4625</v>
       </c>
       <c r="D60" t="n">
-        <v>5877220</v>
+        <v>5888006</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2738,10 +2806,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>13524</v>
+        <v>13551</v>
       </c>
       <c r="D63" t="n">
-        <v>19327541</v>
+        <v>19365772</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2844,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17873</v>
+        <v>17918</v>
       </c>
       <c r="D64" t="n">
-        <v>23336381</v>
+        <v>23396186</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2882,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3584</v>
+        <v>3604</v>
       </c>
       <c r="D65" t="n">
-        <v>5042502</v>
+        <v>5071157</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2920,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13303</v>
+        <v>13339</v>
       </c>
       <c r="D66" t="n">
-        <v>19077634</v>
+        <v>19129935</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2958,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="D67" t="n">
-        <v>2007912</v>
+        <v>2015412</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2996,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D68" t="n">
-        <v>974783</v>
+        <v>975899</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +3034,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="D69" t="n">
-        <v>3980902</v>
+        <v>3986902</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3072,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7417</v>
+        <v>7436</v>
       </c>
       <c r="D70" t="n">
-        <v>10036125</v>
+        <v>10060824</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3110,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3979</v>
+        <v>3990</v>
       </c>
       <c r="D71" t="n">
-        <v>5032103</v>
+        <v>5047018</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4569</v>
+        <v>4588</v>
       </c>
       <c r="D73" t="n">
-        <v>5692336</v>
+        <v>5713908</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3224,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8545</v>
+        <v>8570</v>
       </c>
       <c r="D74" t="n">
-        <v>11319522</v>
+        <v>11349452</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3262,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5123</v>
+        <v>5152</v>
       </c>
       <c r="D75" t="n">
-        <v>6269150</v>
+        <v>6303521</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>12884</v>
+        <v>12905</v>
       </c>
       <c r="D76" t="n">
-        <v>15870778</v>
+        <v>15889917</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3338,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2250</v>
+        <v>2275</v>
       </c>
       <c r="D77" t="n">
-        <v>3104595</v>
+        <v>3135984</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3376,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="D78" t="n">
-        <v>2361886</v>
+        <v>2366386</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3414,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
-        <v>40526</v>
+        <v>42026</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3452,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4466</v>
+        <v>4478</v>
       </c>
       <c r="D80" t="n">
-        <v>6340296</v>
+        <v>6357876</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3490,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4737</v>
+        <v>4750</v>
       </c>
       <c r="D81" t="n">
-        <v>6594271</v>
+        <v>6613105</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3528,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D82" t="n">
-        <v>1048007</v>
+        <v>1052507</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3566,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4868</v>
+        <v>4885</v>
       </c>
       <c r="D83" t="n">
-        <v>6991537</v>
+        <v>7015590</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3604,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D84" t="n">
-        <v>421334</v>
+        <v>422834</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3680,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="D86" t="n">
-        <v>1600388</v>
+        <v>1610888</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3068</v>
+        <v>3077</v>
       </c>
       <c r="D87" t="n">
-        <v>4276867</v>
+        <v>4290367</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3756,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="D88" t="n">
-        <v>2205657</v>
+        <v>2210537</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3794,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D89" t="n">
-        <v>1079646</v>
+        <v>1080606</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3832,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="D90" t="n">
-        <v>2289028</v>
+        <v>2301028</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3870,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="D91" t="n">
-        <v>1274343</v>
+        <v>1281014</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3908,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="D92" t="n">
-        <v>3084634</v>
+        <v>3088118</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3946,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4784</v>
+        <v>4815</v>
       </c>
       <c r="D93" t="n">
-        <v>6667105</v>
+        <v>6713426</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>9624</v>
+        <v>9664</v>
       </c>
       <c r="D95" t="n">
-        <v>12550503</v>
+        <v>12602123</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="D97" t="n">
-        <v>1232973</v>
+        <v>1246473</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4136,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>28379</v>
+        <v>28478</v>
       </c>
       <c r="D98" t="n">
-        <v>40788623</v>
+        <v>40933184</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4174,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>40333</v>
+        <v>40458</v>
       </c>
       <c r="D99" t="n">
-        <v>53621476</v>
+        <v>53782925</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6828</v>
+        <v>6875</v>
       </c>
       <c r="D100" t="n">
-        <v>9298922</v>
+        <v>9357627</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>27256</v>
+        <v>27374</v>
       </c>
       <c r="D101" t="n">
-        <v>39297156</v>
+        <v>39464408</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4288,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3126</v>
+        <v>3145</v>
       </c>
       <c r="D102" t="n">
-        <v>4016519</v>
+        <v>4042757</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4326,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="D103" t="n">
-        <v>2413050</v>
+        <v>2420550</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4364,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5047</v>
+        <v>5075</v>
       </c>
       <c r="D104" t="n">
-        <v>6803387</v>
+        <v>6840326</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>17417</v>
+        <v>17479</v>
       </c>
       <c r="D105" t="n">
-        <v>23416122</v>
+        <v>23498512</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4440,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7621</v>
+        <v>7647</v>
       </c>
       <c r="D106" t="n">
-        <v>9737528</v>
+        <v>9772432</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9566</v>
+        <v>9604</v>
       </c>
       <c r="D108" t="n">
-        <v>11672029</v>
+        <v>11719830</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20542</v>
+        <v>20607</v>
       </c>
       <c r="D109" t="n">
-        <v>28018413</v>
+        <v>28107719</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4592,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9507</v>
+        <v>9547</v>
       </c>
       <c r="D110" t="n">
-        <v>11326387</v>
+        <v>11381333</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4630,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29256</v>
+        <v>29321</v>
       </c>
       <c r="D111" t="n">
-        <v>35216610</v>
+        <v>35284260</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4698,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4690</v>
+        <v>4762</v>
       </c>
       <c r="D113" t="n">
-        <v>6501991</v>
+        <v>6593681</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4668,10 +4736,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="D114" t="n">
-        <v>3528919</v>
+        <v>3538719</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4782,10 +4850,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4489</v>
+        <v>4507</v>
       </c>
       <c r="D117" t="n">
-        <v>6487067</v>
+        <v>6512067</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4820,10 +4888,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6838</v>
+        <v>6863</v>
       </c>
       <c r="D118" t="n">
-        <v>9480382</v>
+        <v>9513872</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4926,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="D119" t="n">
-        <v>2220840</v>
+        <v>2232548</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4964,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4458</v>
+        <v>4480</v>
       </c>
       <c r="D120" t="n">
-        <v>6387730</v>
+        <v>6416176</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +5002,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D121" t="n">
-        <v>830346</v>
+        <v>836016</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5010,10 +5078,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="D123" t="n">
-        <v>1277927</v>
+        <v>1288411</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5048,10 +5116,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2465</v>
+        <v>2483</v>
       </c>
       <c r="D124" t="n">
-        <v>3458245</v>
+        <v>3483454</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2857</v>
+        <v>2874</v>
       </c>
       <c r="D125" t="n">
-        <v>3902630</v>
+        <v>3928130</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5192,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="D126" t="n">
-        <v>1845679</v>
+        <v>1855173</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5230,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2074</v>
+        <v>2083</v>
       </c>
       <c r="D127" t="n">
-        <v>2929915</v>
+        <v>2943043</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5268,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="D128" t="n">
-        <v>1274726</v>
+        <v>1291630</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5306,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2508</v>
+        <v>2522</v>
       </c>
       <c r="D129" t="n">
-        <v>3274120</v>
+        <v>3294320</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5344,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="D130" t="n">
-        <v>1834695</v>
+        <v>1840207</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5352,10 +5420,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="D132" t="n">
-        <v>861276</v>
+        <v>876276</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5428,10 +5496,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1525</v>
+        <v>1541</v>
       </c>
       <c r="D134" t="n">
-        <v>2230935</v>
+        <v>2254935</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5466,10 +5534,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1500</v>
+        <v>1517</v>
       </c>
       <c r="D135" t="n">
-        <v>2114781</v>
+        <v>2136048</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5504,10 +5572,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D136" t="n">
-        <v>694884</v>
+        <v>702384</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5542,10 +5610,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D137" t="n">
-        <v>1461422</v>
+        <v>1464422</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5580,10 +5648,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D138" t="n">
-        <v>178751</v>
+        <v>180251</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5694,10 +5762,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D141" t="n">
-        <v>934985</v>
+        <v>945642</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5732,10 +5800,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D142" t="n">
-        <v>943702</v>
+        <v>952702</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5770,10 +5838,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D143" t="n">
-        <v>418611</v>
+        <v>420111</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5846,10 +5914,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D145" t="n">
-        <v>326255</v>
+        <v>331121</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5884,10 +5952,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D146" t="n">
-        <v>709618</v>
+        <v>717118</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5922,10 +5990,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2607</v>
+        <v>2623</v>
       </c>
       <c r="D147" t="n">
-        <v>3552425</v>
+        <v>3576144</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5998,10 +6066,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7341</v>
+        <v>7351</v>
       </c>
       <c r="D149" t="n">
-        <v>9123828</v>
+        <v>9138828</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6112,10 +6180,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>23536</v>
+        <v>23605</v>
       </c>
       <c r="D152" t="n">
-        <v>33426582</v>
+        <v>33526815</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6150,10 +6218,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>38926</v>
+        <v>39014</v>
       </c>
       <c r="D153" t="n">
-        <v>49648562</v>
+        <v>49763066</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6188,10 +6256,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>10145</v>
+        <v>10194</v>
       </c>
       <c r="D154" t="n">
-        <v>13916063</v>
+        <v>13977378</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6226,10 +6294,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26329</v>
+        <v>26408</v>
       </c>
       <c r="D155" t="n">
-        <v>38004475</v>
+        <v>38118173</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6264,10 +6332,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3139</v>
+        <v>3147</v>
       </c>
       <c r="D156" t="n">
-        <v>4062252</v>
+        <v>4072801</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6302,10 +6370,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="D157" t="n">
-        <v>2479241</v>
+        <v>2482241</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6340,10 +6408,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>4710</v>
+        <v>4722</v>
       </c>
       <c r="D158" t="n">
-        <v>6326961</v>
+        <v>6340234</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6378,10 +6446,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>16810</v>
+        <v>16853</v>
       </c>
       <c r="D159" t="n">
-        <v>22870177</v>
+        <v>22930790</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6416,10 +6484,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7533</v>
+        <v>7564</v>
       </c>
       <c r="D160" t="n">
-        <v>9419900</v>
+        <v>9454036</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6492,10 +6560,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8531</v>
+        <v>8556</v>
       </c>
       <c r="D162" t="n">
-        <v>10598656</v>
+        <v>10630479</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6530,10 +6598,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>21106</v>
+        <v>21181</v>
       </c>
       <c r="D163" t="n">
-        <v>28675798</v>
+        <v>28774009</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6568,10 +6636,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>9396</v>
+        <v>9426</v>
       </c>
       <c r="D164" t="n">
-        <v>11364514</v>
+        <v>11400894</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6606,10 +6674,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>27883</v>
+        <v>27915</v>
       </c>
       <c r="D165" t="n">
-        <v>32784484</v>
+        <v>32818687</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6644,10 +6712,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D166" t="n">
-        <v>1080716</v>
+        <v>1092716</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6720,10 +6788,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>19500</v>
+        <v>19564</v>
       </c>
       <c r="D168" t="n">
-        <v>26108921</v>
+        <v>26191334</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6758,10 +6826,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D169" t="n">
-        <v>306894</v>
+        <v>318594</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6796,10 +6864,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="D170" t="n">
-        <v>1064979</v>
+        <v>1088979</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6834,10 +6902,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>59944</v>
+        <v>60149</v>
       </c>
       <c r="D171" t="n">
-        <v>86467022</v>
+        <v>86759768</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6872,10 +6940,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>103760</v>
+        <v>104134</v>
       </c>
       <c r="D172" t="n">
-        <v>142124550</v>
+        <v>142637951</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6910,10 +6978,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>124897</v>
+        <v>125718</v>
       </c>
       <c r="D173" t="n">
-        <v>178545816</v>
+        <v>179709158</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6948,10 +7016,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>66034</v>
+        <v>66325</v>
       </c>
       <c r="D174" t="n">
-        <v>97132518</v>
+        <v>97559188</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6986,10 +7054,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>30659</v>
+        <v>30791</v>
       </c>
       <c r="D175" t="n">
-        <v>42015941</v>
+        <v>42194852</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7024,10 +7092,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7242</v>
+        <v>7262</v>
       </c>
       <c r="D176" t="n">
-        <v>10370717</v>
+        <v>10399268</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7062,10 +7130,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18579</v>
+        <v>18638</v>
       </c>
       <c r="D177" t="n">
-        <v>26306768</v>
+        <v>26388123</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7100,10 +7168,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>116561</v>
+        <v>117004</v>
       </c>
       <c r="D178" t="n">
-        <v>160360627</v>
+        <v>160953355</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7138,10 +7206,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>30574</v>
+        <v>30702</v>
       </c>
       <c r="D179" t="n">
-        <v>41026582</v>
+        <v>41201789</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7214,10 +7282,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>32067</v>
+        <v>32157</v>
       </c>
       <c r="D181" t="n">
-        <v>39625116</v>
+        <v>39730922</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7252,10 +7320,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>55275</v>
+        <v>55433</v>
       </c>
       <c r="D182" t="n">
-        <v>74895079</v>
+        <v>75112352</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7290,10 +7358,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>47411</v>
+        <v>47587</v>
       </c>
       <c r="D183" t="n">
-        <v>60930756</v>
+        <v>61151123</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7328,10 +7396,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>56798</v>
+        <v>56949</v>
       </c>
       <c r="D184" t="n">
-        <v>74092606</v>
+        <v>74280936</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7366,10 +7434,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3842</v>
+        <v>3897</v>
       </c>
       <c r="D185" t="n">
-        <v>5086451</v>
+        <v>5158726</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7442,10 +7510,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3574</v>
+        <v>3587</v>
       </c>
       <c r="D187" t="n">
-        <v>4812893</v>
+        <v>4827351</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7480,10 +7548,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="n">
-        <v>12713</v>
+        <v>14213</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7556,10 +7624,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6840</v>
+        <v>6859</v>
       </c>
       <c r="D190" t="n">
-        <v>9952776</v>
+        <v>9980326</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7594,10 +7662,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>11643</v>
+        <v>11674</v>
       </c>
       <c r="D191" t="n">
-        <v>15921966</v>
+        <v>15963941</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7632,10 +7700,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="D192" t="n">
-        <v>2254802</v>
+        <v>2266755</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7670,10 +7738,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5942</v>
+        <v>5961</v>
       </c>
       <c r="D193" t="n">
-        <v>8422525</v>
+        <v>8451025</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7708,10 +7776,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D194" t="n">
-        <v>1079457</v>
+        <v>1085425</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7784,10 +7852,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="D196" t="n">
-        <v>1852948</v>
+        <v>1861837</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7822,10 +7890,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3716</v>
+        <v>3728</v>
       </c>
       <c r="D197" t="n">
-        <v>5224002</v>
+        <v>5241932</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7860,10 +7928,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="D198" t="n">
-        <v>2940799</v>
+        <v>2946799</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7898,10 +7966,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2984</v>
+        <v>2996</v>
       </c>
       <c r="D199" t="n">
-        <v>3900645</v>
+        <v>3917393</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7936,10 +8004,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4881</v>
+        <v>4896</v>
       </c>
       <c r="D200" t="n">
-        <v>6905353</v>
+        <v>6925603</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7974,10 +8042,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="D201" t="n">
-        <v>2519504</v>
+        <v>2525204</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8012,10 +8080,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4584</v>
+        <v>4595</v>
       </c>
       <c r="D202" t="n">
-        <v>5849262</v>
+        <v>5864317</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8050,10 +8118,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1445</v>
+        <v>1461</v>
       </c>
       <c r="D203" t="n">
-        <v>1821343</v>
+        <v>1840401</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8088,10 +8156,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="D204" t="n">
-        <v>2298941</v>
+        <v>2310341</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8202,10 +8270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2730</v>
+        <v>2745</v>
       </c>
       <c r="D207" t="n">
-        <v>3948643</v>
+        <v>3970381</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8240,10 +8308,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4541</v>
+        <v>4562</v>
       </c>
       <c r="D208" t="n">
-        <v>6245653</v>
+        <v>6275303</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -8278,10 +8346,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D209" t="n">
-        <v>2110463</v>
+        <v>2116463</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8316,10 +8384,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2616</v>
+        <v>2635</v>
       </c>
       <c r="D210" t="n">
-        <v>3757136</v>
+        <v>3783913</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8354,10 +8422,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D211" t="n">
-        <v>573903</v>
+        <v>575403</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8392,10 +8460,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D212" t="n">
-        <v>275878</v>
+        <v>277378</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8430,10 +8498,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D213" t="n">
-        <v>787091</v>
+        <v>788591</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8468,10 +8536,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2095</v>
+        <v>2109</v>
       </c>
       <c r="D214" t="n">
-        <v>2915019</v>
+        <v>2934961</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8506,10 +8574,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="D215" t="n">
-        <v>2695851</v>
+        <v>2700069</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8544,10 +8612,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="D216" t="n">
-        <v>1404202</v>
+        <v>1408335</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8582,10 +8650,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="D217" t="n">
-        <v>2480649</v>
+        <v>2485149</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8620,10 +8688,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D218" t="n">
-        <v>1057802</v>
+        <v>1060802</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8658,10 +8726,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2321</v>
+        <v>2332</v>
       </c>
       <c r="D219" t="n">
-        <v>3039195</v>
+        <v>3053430</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8726,10 +8794,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1526</v>
+        <v>1573</v>
       </c>
       <c r="D221" t="n">
-        <v>2246958</v>
+        <v>2315588</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8832,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D222" t="n">
-        <v>587153</v>
+        <v>597653</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8840,10 +8908,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="D224" t="n">
-        <v>1855288</v>
+        <v>1870288</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8878,10 +8946,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>5478</v>
+        <v>5550</v>
       </c>
       <c r="D225" t="n">
-        <v>7817177</v>
+        <v>7920269</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8916,10 +8984,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1223</v>
+        <v>1236</v>
       </c>
       <c r="D226" t="n">
-        <v>1803002</v>
+        <v>1822235</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8954,10 +9022,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D227" t="n">
-        <v>983454</v>
+        <v>989454</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -9144,10 +9212,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D232" t="n">
-        <v>344964</v>
+        <v>349464</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -9334,10 +9402,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2906</v>
+        <v>2922</v>
       </c>
       <c r="D237" t="n">
-        <v>3954446</v>
+        <v>3976444</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9410,10 +9478,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5129</v>
+        <v>5142</v>
       </c>
       <c r="D239" t="n">
-        <v>6525127</v>
+        <v>6541964</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9524,10 +9592,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>14595</v>
+        <v>14634</v>
       </c>
       <c r="D242" t="n">
-        <v>20891200</v>
+        <v>20946386</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9562,10 +9630,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>24638</v>
+        <v>24691</v>
       </c>
       <c r="D243" t="n">
-        <v>32290668</v>
+        <v>32364180</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9600,10 +9668,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3746</v>
+        <v>3765</v>
       </c>
       <c r="D244" t="n">
-        <v>5155420</v>
+        <v>5183541</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9638,10 +9706,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>18131</v>
+        <v>18192</v>
       </c>
       <c r="D245" t="n">
-        <v>26054307</v>
+        <v>26140226</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9676,10 +9744,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D246" t="n">
-        <v>2131006</v>
+        <v>2132650</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9714,10 +9782,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D247" t="n">
-        <v>1509897</v>
+        <v>1511397</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9752,10 +9820,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3428</v>
+        <v>3438</v>
       </c>
       <c r="D248" t="n">
-        <v>4534098</v>
+        <v>4547581</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9790,10 +9858,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>9887</v>
+        <v>9920</v>
       </c>
       <c r="D249" t="n">
-        <v>13391757</v>
+        <v>13437567</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9828,10 +9896,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4468</v>
+        <v>4473</v>
       </c>
       <c r="D250" t="n">
-        <v>5604383</v>
+        <v>5611883</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9904,10 +9972,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5472</v>
+        <v>5484</v>
       </c>
       <c r="D252" t="n">
-        <v>6595985</v>
+        <v>6608455</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9942,10 +10010,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>10153</v>
+        <v>10174</v>
       </c>
       <c r="D253" t="n">
-        <v>13445418</v>
+        <v>13474783</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -9980,10 +10048,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6211</v>
+        <v>6238</v>
       </c>
       <c r="D254" t="n">
-        <v>7583794</v>
+        <v>7619694</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -10018,10 +10086,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>17018</v>
+        <v>17036</v>
       </c>
       <c r="D255" t="n">
-        <v>20740199</v>
+        <v>20759644</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10056,10 +10124,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10803</v>
+        <v>10838</v>
       </c>
       <c r="D256" t="n">
-        <v>14941869</v>
+        <v>14986495</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10132,10 +10200,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>15723</v>
+        <v>15775</v>
       </c>
       <c r="D258" t="n">
-        <v>19425876</v>
+        <v>19486991</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10208,10 +10276,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D260" t="n">
-        <v>922520</v>
+        <v>924020</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10246,10 +10314,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>42067</v>
+        <v>42171</v>
       </c>
       <c r="D261" t="n">
-        <v>59740034</v>
+        <v>59882077</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10284,10 +10352,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>59195</v>
+        <v>59335</v>
       </c>
       <c r="D262" t="n">
-        <v>77908541</v>
+        <v>78101094</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10322,10 +10390,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>9364</v>
+        <v>9433</v>
       </c>
       <c r="D263" t="n">
-        <v>12808837</v>
+        <v>12909089</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10360,10 +10428,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>39931</v>
+        <v>40048</v>
       </c>
       <c r="D264" t="n">
-        <v>56540797</v>
+        <v>56705812</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10398,10 +10466,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4938</v>
+        <v>4950</v>
       </c>
       <c r="D265" t="n">
-        <v>6372323</v>
+        <v>6384821</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10436,10 +10504,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="D266" t="n">
-        <v>3724071</v>
+        <v>3730046</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10474,10 +10542,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>9992</v>
+        <v>10024</v>
       </c>
       <c r="D267" t="n">
-        <v>13231462</v>
+        <v>13271704</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10512,10 +10580,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>28836</v>
+        <v>28922</v>
       </c>
       <c r="D268" t="n">
-        <v>38772636</v>
+        <v>38886657</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10550,10 +10618,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>14330</v>
+        <v>14366</v>
       </c>
       <c r="D269" t="n">
-        <v>17914869</v>
+        <v>17956167</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10626,10 +10694,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>15778</v>
+        <v>15822</v>
       </c>
       <c r="D271" t="n">
-        <v>18526623</v>
+        <v>18568856</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10664,10 +10732,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>32903</v>
+        <v>32990</v>
       </c>
       <c r="D272" t="n">
-        <v>43573524</v>
+        <v>43690208</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10702,10 +10770,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>15439</v>
+        <v>15488</v>
       </c>
       <c r="D273" t="n">
-        <v>18578931</v>
+        <v>18637049</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -10740,10 +10808,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>38965</v>
+        <v>39012</v>
       </c>
       <c r="D274" t="n">
-        <v>46755609</v>
+        <v>46800835</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10778,10 +10846,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>11276</v>
+        <v>11338</v>
       </c>
       <c r="D275" t="n">
-        <v>15166246</v>
+        <v>15250352</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10854,10 +10922,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>17017</v>
+        <v>17075</v>
       </c>
       <c r="D277" t="n">
-        <v>21122377</v>
+        <v>21195868</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10892,10 +10960,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D278" t="n">
-        <v>132212</v>
+        <v>135212</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10930,10 +10998,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D279" t="n">
-        <v>808428</v>
+        <v>811428</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -10968,10 +11036,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>53509</v>
+        <v>53729</v>
       </c>
       <c r="D280" t="n">
-        <v>75868782</v>
+        <v>76177656</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -11006,10 +11074,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>66114</v>
+        <v>66331</v>
       </c>
       <c r="D281" t="n">
-        <v>86894813</v>
+        <v>87172986</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -11044,10 +11112,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>10640</v>
+        <v>10693</v>
       </c>
       <c r="D282" t="n">
-        <v>14313633</v>
+        <v>14386775</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11082,10 +11150,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>47414</v>
+        <v>47606</v>
       </c>
       <c r="D283" t="n">
-        <v>67272339</v>
+        <v>67547527</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11120,10 +11188,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5905</v>
+        <v>5934</v>
       </c>
       <c r="D284" t="n">
-        <v>7539748</v>
+        <v>7576264</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11158,10 +11226,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2768</v>
+        <v>2778</v>
       </c>
       <c r="D285" t="n">
-        <v>3828265</v>
+        <v>3842663</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11196,10 +11264,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>11382</v>
+        <v>11410</v>
       </c>
       <c r="D286" t="n">
-        <v>15208227</v>
+        <v>15243674</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11234,10 +11302,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>32843</v>
+        <v>32988</v>
       </c>
       <c r="D287" t="n">
-        <v>44530342</v>
+        <v>44724595</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11272,10 +11340,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>15736</v>
+        <v>15799</v>
       </c>
       <c r="D288" t="n">
-        <v>19755891</v>
+        <v>19839948</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11348,10 +11416,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>19199</v>
+        <v>19253</v>
       </c>
       <c r="D290" t="n">
-        <v>22582046</v>
+        <v>22637875</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11386,10 +11454,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>35707</v>
+        <v>35834</v>
       </c>
       <c r="D291" t="n">
-        <v>47451882</v>
+        <v>47613898</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11424,10 +11492,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>17674</v>
+        <v>17747</v>
       </c>
       <c r="D292" t="n">
-        <v>21200964</v>
+        <v>21285809</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -11462,10 +11530,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>39761</v>
+        <v>39861</v>
       </c>
       <c r="D293" t="n">
-        <v>46366598</v>
+        <v>46481799</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11500,10 +11568,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3644</v>
+        <v>3665</v>
       </c>
       <c r="D294" t="n">
-        <v>5098833</v>
+        <v>5125903</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11576,10 +11644,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>7024</v>
+        <v>7038</v>
       </c>
       <c r="D296" t="n">
-        <v>8727566</v>
+        <v>8745815</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11690,10 +11758,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>17107</v>
+        <v>17148</v>
       </c>
       <c r="D299" t="n">
-        <v>24531458</v>
+        <v>24591427</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11728,10 +11796,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>26145</v>
+        <v>26188</v>
       </c>
       <c r="D300" t="n">
-        <v>34314467</v>
+        <v>34375076</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -11766,10 +11834,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>4687</v>
+        <v>4717</v>
       </c>
       <c r="D301" t="n">
-        <v>6559751</v>
+        <v>6603286</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11804,10 +11872,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>19399</v>
+        <v>19464</v>
       </c>
       <c r="D302" t="n">
-        <v>27876820</v>
+        <v>27969166</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11842,10 +11910,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2704</v>
+        <v>2718</v>
       </c>
       <c r="D303" t="n">
-        <v>3466704</v>
+        <v>3483725</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11880,10 +11948,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="D304" t="n">
-        <v>2310112</v>
+        <v>2316041</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11918,10 +11986,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5060</v>
+        <v>5071</v>
       </c>
       <c r="D305" t="n">
-        <v>6779651</v>
+        <v>6793556</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11956,10 +12024,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>15142</v>
+        <v>15188</v>
       </c>
       <c r="D306" t="n">
-        <v>20490260</v>
+        <v>20551790</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11994,10 +12062,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>5600</v>
+        <v>5613</v>
       </c>
       <c r="D307" t="n">
-        <v>7208719</v>
+        <v>7227426</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12032,10 +12100,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>7165</v>
+        <v>7187</v>
       </c>
       <c r="D308" t="n">
-        <v>8665813</v>
+        <v>8688926</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12070,10 +12138,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>18430</v>
+        <v>18477</v>
       </c>
       <c r="D309" t="n">
-        <v>24378307</v>
+        <v>24436256</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12108,10 +12176,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8499</v>
+        <v>8543</v>
       </c>
       <c r="D310" t="n">
-        <v>10405605</v>
+        <v>10460473</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12146,10 +12214,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>19729</v>
+        <v>19751</v>
       </c>
       <c r="D311" t="n">
-        <v>24326458</v>
+        <v>24354558</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12184,10 +12252,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4892</v>
+        <v>4905</v>
       </c>
       <c r="D312" t="n">
-        <v>6661617</v>
+        <v>6675789</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12260,10 +12328,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>16222</v>
+        <v>16253</v>
       </c>
       <c r="D314" t="n">
-        <v>21064860</v>
+        <v>21107041</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12374,10 +12442,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>46995</v>
+        <v>47157</v>
       </c>
       <c r="D317" t="n">
-        <v>67045630</v>
+        <v>67276730</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12412,10 +12480,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>70491</v>
+        <v>70636</v>
       </c>
       <c r="D318" t="n">
-        <v>93930323</v>
+        <v>94116929</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -12450,10 +12518,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>18013</v>
+        <v>18083</v>
       </c>
       <c r="D319" t="n">
-        <v>25243692</v>
+        <v>25336184</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12488,10 +12556,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>45597</v>
+        <v>45728</v>
       </c>
       <c r="D320" t="n">
-        <v>65804486</v>
+        <v>65994538</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12526,10 +12594,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6415</v>
+        <v>6443</v>
       </c>
       <c r="D321" t="n">
-        <v>8385342</v>
+        <v>8424438</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12564,10 +12632,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3080</v>
+        <v>3093</v>
       </c>
       <c r="D322" t="n">
-        <v>4344856</v>
+        <v>4362879</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12602,10 +12670,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>14040</v>
+        <v>14076</v>
       </c>
       <c r="D323" t="n">
-        <v>19354139</v>
+        <v>19402010</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12640,10 +12708,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>35652</v>
+        <v>35751</v>
       </c>
       <c r="D324" t="n">
-        <v>48519888</v>
+        <v>48656354</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12678,10 +12746,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>19016</v>
+        <v>19062</v>
       </c>
       <c r="D325" t="n">
-        <v>24576231</v>
+        <v>24638215</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12754,10 +12822,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>20475</v>
+        <v>20530</v>
       </c>
       <c r="D327" t="n">
-        <v>24911506</v>
+        <v>24973526</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12792,10 +12860,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>32931</v>
+        <v>33015</v>
       </c>
       <c r="D328" t="n">
-        <v>43935288</v>
+        <v>44048429</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12830,10 +12898,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>16898</v>
+        <v>16947</v>
       </c>
       <c r="D329" t="n">
-        <v>20972472</v>
+        <v>21034303</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -12868,10 +12936,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>39467</v>
+        <v>39537</v>
       </c>
       <c r="D330" t="n">
-        <v>47117380</v>
+        <v>47194964</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
